--- a/data/option_chains.xlsx
+++ b/data/option_chains.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shangguanyuqian/PycharmProjects/FINA4150Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shangguanyuqian/PycharmProjects/Equity-Linked-Note-Pricer/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A66ABC7-827E-3745-8E64-0E49B982A6C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC87F0F-477A-9048-A2D9-ECDDD079558C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6400" yWindow="500" windowWidth="25600" windowHeight="14840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -116,14 +116,16 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -135,8 +137,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,8 +441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I451"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1560,32 +1560,32 @@
         <v>321.2</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="5">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39">
         <v>320</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39">
         <v>12.3500003814697</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39">
         <v>28.202201289183201</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39">
         <v>10.1000003814697</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39">
         <v>27.686423465646499</v>
       </c>
-      <c r="F39" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G39" s="6">
+      <c r="F39" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" s="3">
         <v>45288</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H39">
         <v>23</v>
       </c>
-      <c r="I39" s="5">
+      <c r="I39">
         <v>321.2</v>
       </c>
     </row>
@@ -2082,32 +2082,32 @@
         <v>321.2</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="5">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57">
         <v>275</v>
       </c>
-      <c r="B57" s="5">
+      <c r="B57">
         <v>50.180000305175803</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C57">
         <v>30.609993401222699</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D57">
         <v>1.5700000524520901</v>
       </c>
-      <c r="E57" s="5">
+      <c r="E57">
         <v>30.116372154201699</v>
       </c>
-      <c r="F57" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G57" s="6">
+      <c r="F57" t="s">
+        <v>7</v>
+      </c>
+      <c r="G57" s="3">
         <v>45321</v>
       </c>
-      <c r="H57" s="5">
+      <c r="H57">
         <v>46</v>
       </c>
-      <c r="I57" s="5">
+      <c r="I57">
         <v>321.2</v>
       </c>
     </row>
@@ -2227,32 +2227,32 @@
         <v>321.2</v>
       </c>
     </row>
-    <row r="62" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="5">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62">
         <v>300</v>
       </c>
-      <c r="B62" s="5">
+      <c r="B62">
         <v>30</v>
       </c>
-      <c r="C62" s="5">
+      <c r="C62">
         <v>27.554528919618701</v>
       </c>
-      <c r="D62" s="5">
+      <c r="D62">
         <v>6.0999999046325701</v>
       </c>
-      <c r="E62" s="5">
+      <c r="E62">
         <v>28.980881781919901</v>
       </c>
-      <c r="F62" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G62" s="6">
+      <c r="F62" t="s">
+        <v>7</v>
+      </c>
+      <c r="G62" s="3">
         <v>45321</v>
       </c>
-      <c r="H62" s="5">
+      <c r="H62">
         <v>46</v>
       </c>
-      <c r="I62" s="5">
+      <c r="I62">
         <v>321.2</v>
       </c>
     </row>
